--- a/docs/AIS_implementation_status/VTT_EG_Overview_of_national_AIS_status_output_11112020.xlsx
+++ b/docs/AIS_implementation_status/VTT_EG_Overview_of_national_AIS_status_output_11112020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\local\www.ris.eu\docs\AIS_implementation_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8670E5F5-F08A-4E77-A828-9D2BA70F05B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8C8CFF-0EF0-4FB3-AB3F-E897A45B61DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="3810" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,9 +71,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="203">
   <si>
     <t xml:space="preserve">Overview of AIS shore infrastructure and services: </t>
-  </si>
-  <si>
-    <t>output of the VTT EG online meeting , June 2020</t>
   </si>
   <si>
     <t>availability of seamless AIS infrastructure</t>
@@ -751,6 +748,9 @@
   </si>
   <si>
     <t>PLEASE PROVIDE INPUT !</t>
+  </si>
+  <si>
+    <t>input before the TWG CESNI/TI/VTT online meeting in  Nov 2020</t>
   </si>
 </sst>
 </file>
@@ -1891,42 +1891,43 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1935,18 +1936,17 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2276,7 +2276,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2358,7 +2358,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="7" t="s">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -2463,145 +2463,145 @@
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="182" t="s">
+      <c r="D5" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="178"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="183"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185" t="s">
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="179"/>
+      <c r="T5" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="183"/>
-      <c r="O5" s="183"/>
-      <c r="P5" s="183"/>
-      <c r="Q5" s="183"/>
-      <c r="R5" s="183"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="185" t="s">
+      <c r="U5" s="179"/>
+      <c r="V5" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="184"/>
-      <c r="V5" s="185" t="s">
+      <c r="W5" s="178"/>
+      <c r="X5" s="178"/>
+      <c r="Y5" s="178"/>
+      <c r="Z5" s="178"/>
+      <c r="AA5" s="178"/>
+      <c r="AB5" s="178"/>
+      <c r="AC5" s="179"/>
+      <c r="AD5" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="183"/>
-      <c r="X5" s="183"/>
-      <c r="Y5" s="183"/>
-      <c r="Z5" s="183"/>
-      <c r="AA5" s="183"/>
-      <c r="AB5" s="183"/>
-      <c r="AC5" s="184"/>
-      <c r="AD5" s="185" t="s">
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="178"/>
+      <c r="AG5" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="AE5" s="183"/>
-      <c r="AF5" s="183"/>
-      <c r="AG5" s="185" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH5" s="183"/>
-      <c r="AI5" s="184"/>
+      <c r="AH5" s="178"/>
+      <c r="AI5" s="179"/>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="11"/>
     </row>
     <row r="6" spans="1:37" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="L6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="M6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="N6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="O6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="P6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="Q6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="R6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="S6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="T6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="U6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="V6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="W6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="X6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="Y6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Z6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="AA6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AA6" s="16" t="s">
+      <c r="AB6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AB6" s="16" t="s">
+      <c r="AC6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AC6" s="16" t="s">
+      <c r="AD6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AD6" s="15" t="s">
+      <c r="AE6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AE6" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="AF6" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG6" s="14" t="str">
         <f t="shared" ref="AG6:AI6" si="0">D6</f>
@@ -2620,13 +2620,13 @@
     </row>
     <row r="7" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="19">
         <v>1</v>
@@ -2670,14 +2670,14 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="173" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="168" t="s">
+      <c r="C8" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="D8" s="19">
         <v>1</v>
@@ -2721,10 +2721,10 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="178"/>
-      <c r="B9" s="178"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="19">
         <v>1</v>
@@ -2768,10 +2768,10 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="165"/>
-      <c r="B10" s="165"/>
+      <c r="A10" s="168"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="19">
         <v>1</v>
@@ -2815,14 +2815,14 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="173" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="168" t="s">
-        <v>46</v>
-      </c>
       <c r="C11" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="36">
         <v>1</v>
@@ -2834,13 +2834,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="38" t="s">
         <v>47</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>48</v>
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
@@ -2872,8 +2872,8 @@
       <c r="AK11" s="42"/>
     </row>
     <row r="12" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="165"/>
-      <c r="B12" s="165"/>
+      <c r="A12" s="168"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="18"/>
       <c r="D12" s="43"/>
       <c r="E12" s="23"/>
@@ -2911,14 +2911,14 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="168" t="s">
+      <c r="A13" s="173" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="168" t="s">
+      <c r="C13" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2958,8 +2958,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="165"/>
-      <c r="B14" s="165"/>
+      <c r="A14" s="168"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="18"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -2997,14 +2997,14 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="173" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="168" t="s">
+      <c r="C15" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="D15" s="26">
         <v>1</v>
@@ -3048,10 +3048,10 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="165"/>
-      <c r="B16" s="165"/>
+      <c r="A16" s="168"/>
+      <c r="B16" s="168"/>
       <c r="C16" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="26">
         <v>1</v>
@@ -3095,11 +3095,11 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="168" t="s">
+      <c r="A17" s="173" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="175" t="s">
         <v>56</v>
-      </c>
-      <c r="B17" s="174" t="s">
-        <v>57</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="24"/>
@@ -3138,8 +3138,8 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="165"/>
-      <c r="B18" s="175"/>
+      <c r="A18" s="168"/>
+      <c r="B18" s="176"/>
       <c r="C18" s="18"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
@@ -3177,14 +3177,14 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="168" t="s">
+      <c r="A19" s="173" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="168" t="s">
+      <c r="C19" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="D19" s="19">
         <v>1</v>
@@ -3224,10 +3224,10 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="178"/>
-      <c r="B20" s="178"/>
+      <c r="A20" s="174"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
@@ -3267,10 +3267,10 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="178"/>
-      <c r="B21" s="178"/>
+      <c r="A21" s="174"/>
+      <c r="B21" s="174"/>
       <c r="C21" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="19">
         <v>1</v>
@@ -3310,10 +3310,10 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="178"/>
-      <c r="B22" s="178"/>
+      <c r="A22" s="174"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="19">
         <v>1</v>
@@ -3353,10 +3353,10 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="178"/>
-      <c r="B23" s="178"/>
+      <c r="A23" s="174"/>
+      <c r="B23" s="174"/>
       <c r="C23" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="19">
         <v>1</v>
@@ -3396,10 +3396,10 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="165"/>
-      <c r="B24" s="165"/>
+      <c r="A24" s="168"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
@@ -3439,14 +3439,14 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="168" t="s">
+      <c r="A25" s="173" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="168" t="s">
-        <v>66</v>
-      </c>
       <c r="C25" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -3482,10 +3482,10 @@
       <c r="AI25" s="54"/>
     </row>
     <row r="26" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="178"/>
-      <c r="B26" s="178"/>
+      <c r="A26" s="174"/>
+      <c r="B26" s="174"/>
       <c r="C26" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -3521,10 +3521,10 @@
       <c r="AI26" s="54"/>
     </row>
     <row r="27" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="165"/>
-      <c r="B27" s="165"/>
+      <c r="A27" s="168"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="19"/>
@@ -3563,13 +3563,13 @@
     </row>
     <row r="28" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>70</v>
-      </c>
       <c r="C28" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="19">
         <v>1</v>
@@ -3593,7 +3593,7 @@
       <c r="Q28" s="57"/>
       <c r="R28" s="54"/>
       <c r="S28" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T28" s="58"/>
       <c r="U28" s="33"/>
@@ -3601,7 +3601,7 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z28" s="55"/>
       <c r="AA28" s="48"/>
@@ -3617,11 +3617,11 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="168" t="s">
+      <c r="A29" s="173" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="173" t="s">
         <v>73</v>
-      </c>
-      <c r="B29" s="168" t="s">
-        <v>74</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="23"/>
@@ -3660,8 +3660,8 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="165"/>
-      <c r="B30" s="165"/>
+      <c r="A30" s="168"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="18"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -3699,11 +3699,11 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="173" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="173" t="s">
         <v>75</v>
-      </c>
-      <c r="B31" s="168" t="s">
-        <v>76</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="47"/>
@@ -3742,8 +3742,8 @@
       <c r="AK31" s="1"/>
     </row>
     <row r="32" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="165"/>
-      <c r="B32" s="165"/>
+      <c r="A32" s="168"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="18"/>
       <c r="D32" s="47"/>
       <c r="E32" s="47"/>
@@ -3781,197 +3781,197 @@
       <c r="AK32" s="1"/>
     </row>
     <row r="33" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="168" t="s">
+      <c r="A33" s="173" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="168" t="s">
+      <c r="C33" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="168" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="169">
+      <c r="D33" s="164">
         <v>0.5</v>
       </c>
-      <c r="E33" s="169">
+      <c r="E33" s="164">
         <v>1</v>
       </c>
-      <c r="F33" s="169">
+      <c r="F33" s="164">
         <v>1</v>
       </c>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="186"/>
-      <c r="L33" s="186"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="187"/>
-      <c r="P33" s="187"/>
-      <c r="Q33" s="166"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="187"/>
-      <c r="T33" s="170"/>
-      <c r="U33" s="164"/>
-      <c r="V33" s="166"/>
-      <c r="W33" s="166"/>
-      <c r="X33" s="166"/>
-      <c r="Y33" s="166"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="172"/>
+      <c r="M33" s="170"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="167"/>
+      <c r="R33" s="167"/>
+      <c r="S33" s="170"/>
+      <c r="T33" s="171"/>
+      <c r="U33" s="169"/>
+      <c r="V33" s="167"/>
+      <c r="W33" s="167"/>
+      <c r="X33" s="167"/>
+      <c r="Y33" s="167"/>
       <c r="Z33" s="55"/>
-      <c r="AA33" s="166"/>
-      <c r="AB33" s="166"/>
-      <c r="AC33" s="167"/>
-      <c r="AD33" s="164"/>
-      <c r="AE33" s="164"/>
-      <c r="AF33" s="164"/>
-      <c r="AG33" s="166"/>
-      <c r="AH33" s="166"/>
-      <c r="AI33" s="166"/>
+      <c r="AA33" s="167"/>
+      <c r="AB33" s="167"/>
+      <c r="AC33" s="187"/>
+      <c r="AD33" s="169"/>
+      <c r="AE33" s="169"/>
+      <c r="AF33" s="169"/>
+      <c r="AG33" s="167"/>
+      <c r="AH33" s="167"/>
+      <c r="AI33" s="167"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
     </row>
     <row r="34" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="165"/>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="165"/>
-      <c r="L34" s="165"/>
-      <c r="M34" s="165"/>
-      <c r="N34" s="165"/>
-      <c r="O34" s="165"/>
-      <c r="P34" s="165"/>
-      <c r="Q34" s="165"/>
-      <c r="R34" s="165"/>
-      <c r="S34" s="165"/>
-      <c r="T34" s="165"/>
-      <c r="U34" s="165"/>
-      <c r="V34" s="165"/>
-      <c r="W34" s="165"/>
-      <c r="X34" s="165"/>
-      <c r="Y34" s="165"/>
+      <c r="A34" s="168"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="168"/>
+      <c r="J34" s="168"/>
+      <c r="K34" s="168"/>
+      <c r="L34" s="168"/>
+      <c r="M34" s="168"/>
+      <c r="N34" s="168"/>
+      <c r="O34" s="168"/>
+      <c r="P34" s="168"/>
+      <c r="Q34" s="168"/>
+      <c r="R34" s="168"/>
+      <c r="S34" s="168"/>
+      <c r="T34" s="168"/>
+      <c r="U34" s="168"/>
+      <c r="V34" s="168"/>
+      <c r="W34" s="168"/>
+      <c r="X34" s="168"/>
+      <c r="Y34" s="168"/>
       <c r="Z34" s="60"/>
-      <c r="AA34" s="165"/>
-      <c r="AB34" s="165"/>
-      <c r="AC34" s="165"/>
-      <c r="AD34" s="165"/>
-      <c r="AE34" s="165"/>
-      <c r="AF34" s="165"/>
-      <c r="AG34" s="165"/>
-      <c r="AH34" s="165"/>
-      <c r="AI34" s="165"/>
+      <c r="AA34" s="168"/>
+      <c r="AB34" s="168"/>
+      <c r="AC34" s="168"/>
+      <c r="AD34" s="168"/>
+      <c r="AE34" s="168"/>
+      <c r="AF34" s="168"/>
+      <c r="AG34" s="168"/>
+      <c r="AH34" s="168"/>
+      <c r="AI34" s="168"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
     </row>
     <row r="35" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="168" t="s">
+      <c r="A35" s="173" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="168" t="s">
+      <c r="C35" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="168" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="179"/>
-      <c r="E35" s="169">
+      <c r="D35" s="166"/>
+      <c r="E35" s="164">
         <f t="shared" ref="E35:F35" si="1">$E$33</f>
         <v>1</v>
       </c>
-      <c r="F35" s="169">
+      <c r="F35" s="164">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="179"/>
-      <c r="L35" s="179"/>
-      <c r="M35" s="179"/>
-      <c r="N35" s="179"/>
-      <c r="O35" s="179"/>
-      <c r="P35" s="179"/>
-      <c r="Q35" s="179"/>
-      <c r="R35" s="179"/>
-      <c r="S35" s="169">
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="166"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="166"/>
+      <c r="N35" s="166"/>
+      <c r="O35" s="166"/>
+      <c r="P35" s="166"/>
+      <c r="Q35" s="166"/>
+      <c r="R35" s="166"/>
+      <c r="S35" s="164">
         <f>'[1]AIS Infrastructure'!$S$33</f>
         <v>0</v>
       </c>
-      <c r="T35" s="169"/>
-      <c r="U35" s="180"/>
-      <c r="V35" s="179"/>
-      <c r="W35" s="179"/>
-      <c r="X35" s="179"/>
-      <c r="Y35" s="179"/>
+      <c r="T35" s="164"/>
+      <c r="U35" s="181"/>
+      <c r="V35" s="166"/>
+      <c r="W35" s="166"/>
+      <c r="X35" s="166"/>
+      <c r="Y35" s="166"/>
       <c r="Z35" s="61"/>
-      <c r="AA35" s="179"/>
-      <c r="AB35" s="179"/>
-      <c r="AC35" s="181"/>
-      <c r="AD35" s="180"/>
-      <c r="AE35" s="180"/>
-      <c r="AF35" s="164"/>
-      <c r="AG35" s="179"/>
-      <c r="AH35" s="179"/>
-      <c r="AI35" s="179"/>
+      <c r="AA35" s="166"/>
+      <c r="AB35" s="166"/>
+      <c r="AC35" s="182"/>
+      <c r="AD35" s="181"/>
+      <c r="AE35" s="181"/>
+      <c r="AF35" s="169"/>
+      <c r="AG35" s="166"/>
+      <c r="AH35" s="166"/>
+      <c r="AI35" s="166"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
     </row>
     <row r="36" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="165"/>
-      <c r="B36" s="165"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
-      <c r="K36" s="171"/>
-      <c r="L36" s="171"/>
-      <c r="M36" s="171"/>
-      <c r="N36" s="171"/>
-      <c r="O36" s="171"/>
-      <c r="P36" s="171"/>
-      <c r="Q36" s="171"/>
-      <c r="R36" s="171"/>
-      <c r="S36" s="171"/>
-      <c r="T36" s="165"/>
-      <c r="U36" s="165"/>
-      <c r="V36" s="165"/>
-      <c r="W36" s="165"/>
-      <c r="X36" s="165"/>
-      <c r="Y36" s="165"/>
+      <c r="A36" s="168"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="165"/>
+      <c r="N36" s="165"/>
+      <c r="O36" s="165"/>
+      <c r="P36" s="165"/>
+      <c r="Q36" s="165"/>
+      <c r="R36" s="165"/>
+      <c r="S36" s="165"/>
+      <c r="T36" s="168"/>
+      <c r="U36" s="168"/>
+      <c r="V36" s="168"/>
+      <c r="W36" s="168"/>
+      <c r="X36" s="168"/>
+      <c r="Y36" s="168"/>
       <c r="Z36" s="62"/>
-      <c r="AA36" s="165"/>
-      <c r="AB36" s="165"/>
-      <c r="AC36" s="165"/>
-      <c r="AD36" s="165"/>
-      <c r="AE36" s="165"/>
-      <c r="AF36" s="165"/>
-      <c r="AG36" s="171"/>
-      <c r="AH36" s="171"/>
-      <c r="AI36" s="171"/>
+      <c r="AA36" s="168"/>
+      <c r="AB36" s="168"/>
+      <c r="AC36" s="168"/>
+      <c r="AD36" s="168"/>
+      <c r="AE36" s="168"/>
+      <c r="AF36" s="168"/>
+      <c r="AG36" s="165"/>
+      <c r="AH36" s="165"/>
+      <c r="AI36" s="165"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
     </row>
     <row r="37" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="168" t="s">
+      <c r="A37" s="173" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="172" t="s">
+      <c r="C37" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="D37" s="26">
         <v>1</v>
@@ -4015,10 +4015,10 @@
       <c r="AK37" s="1"/>
     </row>
     <row r="38" spans="1:37" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="165"/>
-      <c r="B38" s="173"/>
+      <c r="A38" s="168"/>
+      <c r="B38" s="185"/>
       <c r="C38" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="26">
         <v>1</v>
@@ -4062,14 +4062,14 @@
       <c r="AK38" s="1"/>
     </row>
     <row r="39" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="168" t="s">
+      <c r="A39" s="173" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="168" t="s">
-        <v>88</v>
-      </c>
       <c r="C39" s="56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="19">
         <v>1</v>
@@ -4093,7 +4093,7 @@
       <c r="Q39" s="21"/>
       <c r="R39" s="69"/>
       <c r="S39" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T39" s="70"/>
       <c r="U39" s="60"/>
@@ -4115,10 +4115,10 @@
       <c r="AK39" s="1"/>
     </row>
     <row r="40" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="165"/>
-      <c r="B40" s="165"/>
+      <c r="A40" s="168"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="19">
         <v>1</v>
@@ -4142,7 +4142,7 @@
       <c r="Q40" s="21"/>
       <c r="R40" s="21"/>
       <c r="S40" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T40" s="20"/>
       <c r="U40" s="25"/>
@@ -4164,14 +4164,14 @@
       <c r="AK40" s="1"/>
     </row>
     <row r="41" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="168" t="s">
+      <c r="A41" s="173" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="174" t="s">
-        <v>91</v>
-      </c>
       <c r="C41" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="19">
         <v>1</v>
@@ -4215,8 +4215,8 @@
       <c r="AK41" s="1"/>
     </row>
     <row r="42" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="165"/>
-      <c r="B42" s="175"/>
+      <c r="A42" s="168"/>
+      <c r="B42" s="176"/>
       <c r="C42" s="80"/>
       <c r="D42" s="81"/>
       <c r="E42" s="82"/>
@@ -4254,11 +4254,11 @@
       <c r="AK42" s="1"/>
     </row>
     <row r="43" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="176" t="s">
+      <c r="A43" s="183" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="184" t="s">
         <v>92</v>
-      </c>
-      <c r="B43" s="177" t="s">
-        <v>93</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="81"/>
@@ -4297,8 +4297,8 @@
       <c r="AK43" s="1"/>
     </row>
     <row r="44" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="165"/>
-      <c r="B44" s="173"/>
+      <c r="A44" s="168"/>
+      <c r="B44" s="185"/>
       <c r="C44" s="18"/>
       <c r="D44" s="81"/>
       <c r="E44" s="82"/>
@@ -4377,7 +4377,7 @@
     <row r="46" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="3"/>
@@ -4418,7 +4418,7 @@
     <row r="47" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="3"/>
@@ -4459,7 +4459,7 @@
     <row r="48" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="3"/>
@@ -4500,7 +4500,7 @@
     <row r="49" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="3"/>
@@ -4541,7 +4541,7 @@
     <row r="50" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="3"/>
@@ -4582,7 +4582,7 @@
     <row r="51" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="3"/>
@@ -4623,7 +4623,7 @@
     <row r="52" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="3"/>
@@ -41635,16 +41635,80 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="AG35:AG36"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AB33:AB34"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AE35:AE36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="N33:N34"/>
     <mergeCell ref="AF33:AF34"/>
@@ -41657,84 +41721,20 @@
     <mergeCell ref="S33:S34"/>
     <mergeCell ref="T33:T34"/>
     <mergeCell ref="U33:U34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AE35:AE36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
     <mergeCell ref="AD33:AD34"/>
     <mergeCell ref="AE33:AE34"/>
     <mergeCell ref="V33:V34"/>
     <mergeCell ref="W33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AB33:AB34"/>
-    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="AG35:AG36"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
   </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -41786,11 +41786,11 @@
     <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="91" t="str">
         <f>'AIS Infrastructure'!Q2</f>
-        <v>output of the VTT EG online meeting , June 2020</v>
+        <v>input before the TWG CESNI/TI/VTT online meeting in  Nov 2020</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -41823,7 +41823,7 @@
     </row>
     <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -41880,149 +41880,149 @@
     <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92"/>
       <c r="B8" s="93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="189"/>
       <c r="E8" s="189"/>
       <c r="F8" s="190"/>
       <c r="G8" s="94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K8" s="94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" s="94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8" s="96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N8" s="191" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8" s="192"/>
       <c r="P8" s="192"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S8" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="T8" s="98" t="s">
+      <c r="U8" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="U8" s="99" t="s">
+      <c r="V8" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="V8" s="95" t="s">
+      <c r="W8" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="W8" s="95" t="s">
+      <c r="X8" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="X8" s="100" t="s">
+      <c r="Y8" s="101" t="s">
         <v>108</v>
-      </c>
-      <c r="Y8" s="101" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="C9" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="E9" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="F9" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="G9" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="103" t="s">
+      <c r="H9" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="105" t="s">
+      <c r="I9" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="J9" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="K9" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="103" t="s">
+      <c r="L9" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="103" t="s">
+      <c r="M9" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="M9" s="167" t="s">
+      <c r="N9" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="N9" s="106" t="s">
+      <c r="O9" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="O9" s="103" t="s">
+      <c r="P9" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="P9" s="106" t="s">
+      <c r="Q9" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="Q9" s="106" t="s">
+      <c r="R9" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="R9" s="107" t="s">
+      <c r="S9" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="T9" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="T9" s="103" t="s">
+      <c r="U9" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="U9" s="103" t="s">
+      <c r="V9" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="V9" s="103" t="s">
+      <c r="W9" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="W9" s="103" t="s">
+      <c r="X9" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="X9" s="105" t="s">
+      <c r="Y9" s="108" t="s">
         <v>133</v>
-      </c>
-      <c r="Y9" s="108" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="103" t="s">
         <v>135</v>
-      </c>
-      <c r="B10" s="103" t="s">
-        <v>136</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -42032,31 +42032,31 @@
       <c r="H10" s="109"/>
       <c r="I10" s="105"/>
       <c r="J10" s="103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K10" s="103"/>
       <c r="L10" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="174"/>
+      <c r="N10" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="M10" s="178"/>
-      <c r="N10" s="106" t="s">
+      <c r="O10" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="O10" s="103" t="s">
+      <c r="P10" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="P10" s="106" t="s">
+      <c r="Q10" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="Q10" s="106" t="s">
+      <c r="R10" s="107" t="s">
         <v>142</v>
-      </c>
-      <c r="R10" s="107" t="s">
-        <v>143</v>
       </c>
       <c r="S10" s="23"/>
       <c r="T10" s="103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U10" s="103"/>
       <c r="V10" s="103"/>
@@ -42066,379 +42066,379 @@
     </row>
     <row r="11" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="C11" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="D11" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="G11" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="103" t="s">
+      <c r="H11" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="105" t="s">
+      <c r="I11" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="I11" s="103" t="s">
+      <c r="J11" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="J11" s="103" t="s">
+      <c r="K11" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="K11" s="103" t="s">
+      <c r="L11" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="L11" s="103" t="s">
+      <c r="M11" s="168"/>
+      <c r="N11" s="110" t="s">
         <v>154</v>
       </c>
-      <c r="M11" s="165"/>
-      <c r="N11" s="110" t="s">
+      <c r="O11" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="O11" s="105" t="s">
+      <c r="P11" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="P11" s="110" t="s">
+      <c r="Q11" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="Q11" s="110" t="s">
+      <c r="R11" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="S11" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="T11" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="T11" s="103" t="s">
+      <c r="U11" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="U11" s="111" t="s">
-        <v>162</v>
-      </c>
       <c r="V11" s="105" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W11" s="105" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X11" s="105" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y11" s="105" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="113" t="s">
-        <v>164</v>
-      </c>
       <c r="C12" s="114" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" s="114"/>
       <c r="E12" s="114"/>
       <c r="F12" s="114"/>
       <c r="G12" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="115" t="s">
-        <v>165</v>
-      </c>
       <c r="I12" s="114" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J12" s="115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K12" s="115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L12" s="115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M12" s="114"/>
       <c r="N12" s="116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O12" s="115"/>
       <c r="P12" s="117"/>
       <c r="Q12" s="116"/>
       <c r="R12" s="116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S12" s="115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T12" s="118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U12" s="113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V12" s="85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W12" s="85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X12" s="85"/>
       <c r="Y12" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="122"/>
       <c r="E13" s="122"/>
       <c r="F13" s="122"/>
       <c r="G13" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="I13" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J13" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K13" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L13" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M13" s="122"/>
       <c r="N13" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O13" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P13" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R13" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S13" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T13" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U13" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V13" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W13" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X13" s="83"/>
       <c r="Y13" s="126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="128"/>
       <c r="C14" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="129"/>
       <c r="E14" s="129"/>
       <c r="F14" s="129"/>
       <c r="G14" s="129"/>
       <c r="H14" s="130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I14" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J14" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K14" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L14" s="129"/>
       <c r="M14" s="129"/>
       <c r="N14" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O14" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P14" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R14" s="129"/>
       <c r="S14" s="129"/>
       <c r="T14" s="131"/>
       <c r="U14" s="128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V14" s="129"/>
       <c r="W14" s="129"/>
       <c r="X14" s="129"/>
       <c r="Y14" s="132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="122"/>
       <c r="E15" s="122"/>
       <c r="F15" s="122"/>
       <c r="G15" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="I15" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J15" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K15" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L15" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M15" s="122"/>
       <c r="N15" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O15" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P15" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q15" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R15" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S15" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T15" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U15" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V15" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W15" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X15" s="83"/>
       <c r="Y15" s="126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="122"/>
       <c r="E16" s="122"/>
       <c r="F16" s="122"/>
       <c r="G16" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="I16" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J16" s="123"/>
       <c r="K16" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L16" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M16" s="122"/>
       <c r="N16" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O16" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P16" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R16" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S16" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T16" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U16" s="121"/>
       <c r="V16" s="83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W16" s="83"/>
       <c r="X16" s="83"/>
@@ -42446,150 +42446,150 @@
     </row>
     <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="120" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="122"/>
       <c r="D17" s="122"/>
       <c r="E17" s="122"/>
       <c r="F17" s="122"/>
       <c r="G17" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="I17" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J17" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K17" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L17" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M17" s="122"/>
       <c r="N17" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O17" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P17" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R17" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S17" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T17" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U17" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V17" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W17" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X17" s="83"/>
       <c r="Y17" s="126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="120" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="122"/>
       <c r="D18" s="122"/>
       <c r="E18" s="122"/>
       <c r="F18" s="122"/>
       <c r="G18" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J18" s="123"/>
       <c r="K18" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L18" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M18" s="122"/>
       <c r="N18" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O18" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P18" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R18" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S18" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T18" s="125"/>
       <c r="U18" s="133"/>
       <c r="V18" s="83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W18" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X18" s="83"/>
       <c r="Y18" s="126"/>
     </row>
     <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="120" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B19" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="122"/>
       <c r="E19" s="122"/>
       <c r="F19" s="122"/>
       <c r="G19" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="H19" s="134" t="s">
-        <v>165</v>
-      </c>
       <c r="I19" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J19" s="123"/>
       <c r="K19" s="123"/>
       <c r="L19" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M19" s="122"/>
       <c r="N19" s="135"/>
@@ -42597,13 +42597,13 @@
       <c r="P19" s="135"/>
       <c r="Q19" s="135"/>
       <c r="R19" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S19" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T19" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U19" s="136"/>
       <c r="V19" s="83"/>
@@ -42613,10 +42613,10 @@
     </row>
     <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="127" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="129"/>
       <c r="D20" s="129"/>
@@ -42625,203 +42625,203 @@
       <c r="G20" s="129"/>
       <c r="H20" s="129"/>
       <c r="I20" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J20" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K20" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L20" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M20" s="129"/>
       <c r="N20" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O20" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P20" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q20" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R20" s="129"/>
       <c r="S20" s="129"/>
       <c r="T20" s="131"/>
       <c r="U20" s="128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V20" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W20" s="129"/>
       <c r="X20" s="129"/>
       <c r="Y20" s="132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="120" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" s="122"/>
       <c r="E21" s="122"/>
       <c r="F21" s="122"/>
       <c r="G21" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H21" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="I21" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J21" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K21" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L21" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M21" s="122"/>
       <c r="N21" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O21" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P21" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q21" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R21" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S21" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T21" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U21" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V21" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W21" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X21" s="83"/>
       <c r="Y21" s="126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="120" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D22" s="122"/>
       <c r="E22" s="122"/>
       <c r="F22" s="122"/>
       <c r="G22" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H22" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="I22" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J22" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K22" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L22" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M22" s="122"/>
       <c r="N22" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O22" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P22" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R22" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S22" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T22" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U22" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V22" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W22" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X22" s="83"/>
       <c r="Y22" s="126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="122"/>
       <c r="D23" s="122"/>
       <c r="E23" s="122"/>
       <c r="F23" s="122"/>
       <c r="G23" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H23" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="I23" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J23" s="123"/>
       <c r="K23" s="123"/>
       <c r="L23" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M23" s="122"/>
       <c r="N23" s="124"/>
@@ -42829,17 +42829,17 @@
       <c r="P23" s="124"/>
       <c r="Q23" s="124"/>
       <c r="R23" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S23" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T23" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U23" s="121"/>
       <c r="V23" s="83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W23" s="83"/>
       <c r="X23" s="83"/>
@@ -42847,10 +42847,10 @@
     </row>
     <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="127" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" s="128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="129"/>
       <c r="D24" s="129"/>
@@ -42862,7 +42862,7 @@
       <c r="J24" s="129"/>
       <c r="K24" s="129"/>
       <c r="L24" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M24" s="129"/>
       <c r="N24" s="129"/>
@@ -42874,7 +42874,7 @@
       <c r="T24" s="131"/>
       <c r="U24" s="128"/>
       <c r="V24" s="129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W24" s="129"/>
       <c r="X24" s="129"/>
@@ -42882,7 +42882,7 @@
     </row>
     <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="120" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="121"/>
       <c r="C25" s="122"/>
@@ -42890,13 +42890,13 @@
       <c r="E25" s="122"/>
       <c r="F25" s="122"/>
       <c r="G25" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H25" s="134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I25" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J25" s="123"/>
       <c r="K25" s="123"/>
@@ -42907,10 +42907,10 @@
       <c r="P25" s="135"/>
       <c r="Q25" s="135"/>
       <c r="R25" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S25" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T25" s="125"/>
       <c r="U25" s="136"/>
@@ -42921,7 +42921,7 @@
     </row>
     <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="120" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" s="121"/>
       <c r="C26" s="122"/>
@@ -42929,10 +42929,10 @@
       <c r="E26" s="122"/>
       <c r="F26" s="122"/>
       <c r="G26" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H26" s="134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I26" s="122"/>
       <c r="J26" s="123"/>
@@ -42944,10 +42944,10 @@
       <c r="P26" s="135"/>
       <c r="Q26" s="135"/>
       <c r="R26" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S26" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T26" s="125"/>
       <c r="U26" s="136"/>
@@ -42958,20 +42958,20 @@
     </row>
     <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="120" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="121"/>
       <c r="C27" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="122"/>
       <c r="E27" s="122"/>
       <c r="F27" s="122"/>
       <c r="G27" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H27" s="134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I27" s="122"/>
       <c r="J27" s="123"/>
@@ -42983,7 +42983,7 @@
       <c r="P27" s="135"/>
       <c r="Q27" s="135"/>
       <c r="R27" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S27" s="123"/>
       <c r="T27" s="125"/>
@@ -42995,212 +42995,212 @@
     </row>
     <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="120" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B28" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D28" s="122"/>
       <c r="E28" s="122"/>
       <c r="F28" s="122"/>
       <c r="G28" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H28" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="I28" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J28" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K28" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L28" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M28" s="122"/>
       <c r="N28" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O28" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P28" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R28" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S28" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T28" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U28" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V28" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W28" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X28" s="83"/>
       <c r="Y28" s="126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="120" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" s="122"/>
       <c r="E29" s="122"/>
       <c r="F29" s="122"/>
       <c r="G29" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H29" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="I29" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J29" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K29" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L29" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M29" s="122"/>
       <c r="N29" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O29" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P29" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R29" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S29" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T29" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U29" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V29" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W29" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X29" s="83"/>
       <c r="Y29" s="126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="120" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D30" s="122"/>
       <c r="E30" s="122"/>
       <c r="F30" s="122"/>
       <c r="G30" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H30" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="I30" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J30" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K30" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L30" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M30" s="122"/>
       <c r="N30" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O30" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P30" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q30" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R30" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S30" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T30" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U30" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V30" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W30" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X30" s="83"/>
       <c r="Y30" s="126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="127" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="128"/>
       <c r="C31" s="138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D31" s="138"/>
       <c r="E31" s="138"/>
@@ -43227,18 +43227,18 @@
     </row>
     <row r="32" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="127" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="128"/>
       <c r="C32" s="138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D32" s="138"/>
       <c r="E32" s="138"/>
       <c r="F32" s="138"/>
       <c r="G32" s="129"/>
       <c r="H32" s="130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I32" s="138"/>
       <c r="J32" s="129"/>
@@ -43260,135 +43260,135 @@
     </row>
     <row r="33" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" s="122"/>
       <c r="E33" s="122"/>
       <c r="F33" s="122"/>
       <c r="G33" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H33" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="I33" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J33" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K33" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L33" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M33" s="122"/>
       <c r="N33" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O33" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P33" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q33" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R33" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S33" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T33" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U33" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V33" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W33" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X33" s="83"/>
       <c r="Y33" s="126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="120" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D34" s="122"/>
       <c r="E34" s="122"/>
       <c r="F34" s="122"/>
       <c r="G34" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H34" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="I34" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J34" s="123"/>
       <c r="K34" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L34" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M34" s="122"/>
       <c r="N34" s="139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O34" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P34" s="139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q34" s="139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R34" s="139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S34" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T34" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U34" s="141"/>
       <c r="V34" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W34" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X34" s="83"/>
       <c r="Y34" s="126"/>
     </row>
     <row r="35" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B35" s="128"/>
       <c r="C35" s="138"/>
@@ -43398,11 +43398,11 @@
       <c r="G35" s="129"/>
       <c r="H35" s="129"/>
       <c r="I35" s="138" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J35" s="129"/>
       <c r="K35" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L35" s="129"/>
       <c r="M35" s="138"/>
@@ -43421,72 +43421,72 @@
     </row>
     <row r="36" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B36" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D36" s="122"/>
       <c r="E36" s="122"/>
       <c r="F36" s="122"/>
       <c r="G36" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H36" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="I36" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J36" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K36" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L36" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M36" s="122"/>
       <c r="N36" s="139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O36" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P36" s="139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q36" s="139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R36" s="139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S36" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T36" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U36" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V36" s="83"/>
       <c r="W36" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X36" s="83"/>
       <c r="Y36" s="126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="143" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37" s="136"/>
       <c r="C37" s="122"/>
@@ -43494,11 +43494,11 @@
       <c r="E37" s="122"/>
       <c r="F37" s="122"/>
       <c r="G37" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H37" s="80"/>
       <c r="I37" s="122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J37" s="123"/>
       <c r="K37" s="123"/>
@@ -43509,10 +43509,10 @@
       <c r="P37" s="144"/>
       <c r="Q37" s="144"/>
       <c r="R37" s="139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S37" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T37" s="145"/>
       <c r="U37" s="146"/>
@@ -43523,7 +43523,7 @@
     </row>
     <row r="38" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="120" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" s="121"/>
       <c r="C38" s="83"/>
@@ -43531,13 +43531,13 @@
       <c r="E38" s="83"/>
       <c r="F38" s="83"/>
       <c r="G38" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H38" s="134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I38" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J38" s="123"/>
       <c r="K38" s="80"/>
@@ -43548,7 +43548,7 @@
       <c r="P38" s="144"/>
       <c r="Q38" s="144"/>
       <c r="R38" s="139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S38" s="123"/>
       <c r="T38" s="125"/>
@@ -43560,7 +43560,7 @@
     </row>
     <row r="39" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="147" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B39" s="148"/>
       <c r="C39" s="83"/>
@@ -43568,13 +43568,13 @@
       <c r="E39" s="83"/>
       <c r="F39" s="83"/>
       <c r="G39" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H39" s="149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I39" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J39" s="150"/>
       <c r="K39" s="80"/>
@@ -43585,7 +43585,7 @@
       <c r="P39" s="151"/>
       <c r="Q39" s="151"/>
       <c r="R39" s="153" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S39" s="150"/>
       <c r="T39" s="154"/>
@@ -43597,7 +43597,7 @@
     </row>
     <row r="40" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="120" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B40" s="121"/>
       <c r="C40" s="83"/>
@@ -43605,13 +43605,13 @@
       <c r="E40" s="83"/>
       <c r="F40" s="83"/>
       <c r="G40" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H40" s="134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I40" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J40" s="123"/>
       <c r="K40" s="80"/>
@@ -43622,7 +43622,7 @@
       <c r="P40" s="144"/>
       <c r="Q40" s="144"/>
       <c r="R40" s="139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S40" s="123"/>
       <c r="T40" s="125"/>
@@ -43634,11 +43634,11 @@
     </row>
     <row r="41" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="127" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41" s="128"/>
       <c r="C41" s="138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D41" s="138"/>
       <c r="E41" s="138"/>
@@ -43665,11 +43665,11 @@
     </row>
     <row r="42" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42" s="128"/>
       <c r="C42" s="138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D42" s="138"/>
       <c r="E42" s="138"/>
@@ -43696,11 +43696,11 @@
     </row>
     <row r="43" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="127" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="157"/>
       <c r="C43" s="158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D43" s="158"/>
       <c r="E43" s="158"/>
@@ -43781,7 +43781,7 @@
     </row>
     <row r="46" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -43810,7 +43810,7 @@
     </row>
     <row r="47" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -43839,7 +43839,7 @@
     </row>
     <row r="48" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -43896,7 +43896,7 @@
     <row r="50" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="162"/>
       <c r="B50" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -43910,7 +43910,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="163" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O50" s="163"/>
       <c r="P50" s="163"/>
@@ -43919,7 +43919,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="163" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
